--- a/Masters/Equipment/EquipmentCraftRecipeMaster/ClassSchema.xlsx
+++ b/Masters/Equipment/EquipmentCraftRecipeMaster/ClassSchema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\project\Aries-Master\Masters\Equipment\EquipmentCraftRecipeMaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B32D14-36C3-462E-A3C2-6E96BE871FBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9F35F2-EC64-46E1-9119-7EA72064867A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9360" xr2:uid="{D010554B-594E-4258-A22D-8907CA064929}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>○</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>RequireCount</t>
+  </si>
+  <si>
+    <t>ushort</t>
   </si>
 </sst>
 </file>
@@ -476,7 +479,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -558,7 +561,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
